--- a/Teksten/sitemap.xlsx
+++ b/Teksten/sitemap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="38320" windowHeight="23920" tabRatio="500"/>
+    <workbookView xWindow="7220" yWindow="-9000" windowWidth="26080" windowHeight="22380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Index</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>Ontdek waar jouw talenten vandaan komen</t>
+  </si>
+  <si>
+    <t>Waarom DNA</t>
+  </si>
+  <si>
+    <t>Voorspellen of verklaren</t>
+  </si>
+  <si>
+    <t>Privacy en anonimiteit</t>
+  </si>
+  <si>
+    <t>4 fasen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om te kunnen begrijpen waar je talenten, intuïties en voorkeuren vandaan komen moet je beginnen bij de basis. Het fundament van wie we zijn verstopt zit in ons DNA. Daarom combineren wij de nieuwste wetenschappelijke inzichten op het gebied van ons DNA om professionals een nog beter inzicht in zichzelf te geven. </t>
+  </si>
+  <si>
+    <t>‘Wie we zijn’ en ‘wat we doen’ is het gevolg van een complex samenspel tussen nature (DNA) en nurture (omgeving). DNA heeft daarom geen voorspellende waarde. De manier waarop wij ons ontwikkelen wordt immers ook beinvloed door de manier waarop we opgevoed zijn en onze verdere levenservaringen. DNA heeft wel verklarende waarde: het helpt je begrijpen waar jouw natuurlijk gedrag vandaan komt.</t>
+  </si>
+  <si>
+    <t>Al jouw DNA gegevens worden digitaal in anonieme vorm opgeslagen. Dit houdt in dat het onmogelijk is om op de server persoonsgegevens te koppelen aan de DNA gegevens. Door jouw persoonsgegevens te splitsen van jouw gegevens, hebben we gekozen voor optimale veiligheid. Hoe is het dan toch mogelijk dat jij zelf wel inzicht krijgt doormiddel van persoonlijke feedback? Hierin speelt de persoonlijke DNA sleutel die je hebt ontvangen een cruciale rol. Elke keer dat jij inlogt op je persoonlijke InsightYou profiel wordt je gevraagd om jouw unieke DNA sleutel in te voeren. Pas op het moment dat je die invult, wordt de koppeling tussen jouw persoonsgegevens en jouw profielgegevens gemaakt. Deze koppeling gebeurt ‘live’ en verdwijnt ook weer op het moment dat jij uitlogt.</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Hechtingsstijlen</t>
+  </si>
+  <si>
+    <t>Persoonlijkheid</t>
+  </si>
+  <si>
+    <t>Professional</t>
   </si>
 </sst>
 </file>
@@ -96,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,79 +465,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F19"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="60.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
-      <c r="C5" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="7" spans="2:6">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="E12" t="s">
+    <row r="15" spans="2:6">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="C16" t="s">
+    <row r="19" spans="2:6" ht="75">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="90">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="180">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
+    <row r="24" spans="2:6">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
+    <row r="25" spans="2:6">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Teksten/sitemap.xlsx
+++ b/Teksten/sitemap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="-9000" windowWidth="26080" windowHeight="22380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
